--- a/documentos/Formatos de calidad/Formato de pruebas de software.xlsx
+++ b/documentos/Formatos de calidad/Formato de pruebas de software.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dasaca\Desktop\DAVID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="MR-Req-CU" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MR-Req-CU'!$B$12:$H$26</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="157">
   <si>
     <t>Resultado Esperado</t>
   </si>
@@ -33,9 +36,6 @@
     <t>Iteración</t>
   </si>
   <si>
-    <t>dd/mm/aa</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -105,25 +105,500 @@
     <t>PRUEBAS DE SOFTWARE</t>
   </si>
   <si>
-    <t>Se ingresan los datos de la documentación que entrega el desarrollador</t>
-  </si>
-  <si>
-    <t>Se ingresa el proceso que se va a probar.</t>
-  </si>
-  <si>
-    <t>el id de caso (1.0, 1.1)</t>
-  </si>
-  <si>
-    <t>Se ingresa el caso o acción que se va a llevar a cabo en el software.</t>
-  </si>
-  <si>
-    <t>El resultado que se espera tener al realizar la acción.</t>
-  </si>
-  <si>
-    <t>Se ingresan los componentes a probar</t>
-  </si>
-  <si>
-    <t>Obervaciones si es necesario</t>
+    <t>Oven Dario Lame Gomez</t>
+  </si>
+  <si>
+    <t>Sin observaciones</t>
+  </si>
+  <si>
+    <t>Planificacion  de la produccion para la linea tecnologica de vestuario inteligente CDTI</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>validar datos ingresados.</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Validar la existencia de la persona</t>
+  </si>
+  <si>
+    <t>validar la existencia del registro</t>
+  </si>
+  <si>
+    <t>actualizar datos</t>
+  </si>
+  <si>
+    <t>Cambiar estado</t>
+  </si>
+  <si>
+    <t>Registro de los principales  datos de la persona</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>listando registros</t>
+  </si>
+  <si>
+    <t>consultando registro</t>
+  </si>
+  <si>
+    <t>lista registro</t>
+  </si>
+  <si>
+    <t>actualiza registro</t>
+  </si>
+  <si>
+    <t>cambio de estado</t>
+  </si>
+  <si>
+    <r>
+      <t>Modulo Administracion(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>persona</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Registrar datos de la persona</t>
+  </si>
+  <si>
+    <r>
+      <t>Administracion(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empresa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> validad informacion ingresada</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>validando la existencia de la empresa</t>
+  </si>
+  <si>
+    <t>errores en preiodo de prueba</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>validando informacion ingresada de la persona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consultando persona </t>
+  </si>
+  <si>
+    <t>cambiando estado de persona</t>
+  </si>
+  <si>
+    <t>validando informacion ingresada de la empresa</t>
+  </si>
+  <si>
+    <t>consultando empresa</t>
+  </si>
+  <si>
+    <t>Actualizando informacion de la persona</t>
+  </si>
+  <si>
+    <t>cambiando estado de empresa</t>
+  </si>
+  <si>
+    <r>
+      <t>Produccion(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>talla</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Registro del  producto del cliente o empresa </t>
+  </si>
+  <si>
+    <t>validar existencia de informacion</t>
+  </si>
+  <si>
+    <t>validar busqueda</t>
+  </si>
+  <si>
+    <t>cambiar estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">registro de lo principales datos de la empresa </t>
+  </si>
+  <si>
+    <t>validar  informacion ingresada</t>
+  </si>
+  <si>
+    <t>validar la existencia de la empresa</t>
+  </si>
+  <si>
+    <t>actualizando informacion de la empresa</t>
+  </si>
+  <si>
+    <t>registrando empresa</t>
+  </si>
+  <si>
+    <t>registrando persona</t>
+  </si>
+  <si>
+    <t>registrando talla</t>
+  </si>
+  <si>
+    <t>validando informacion talla</t>
+  </si>
+  <si>
+    <t>validar datos de la talla</t>
+  </si>
+  <si>
+    <t>visualizar los registros existentes.</t>
+  </si>
+  <si>
+    <r>
+      <t>Produccion(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>producto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Validar  informacion ingresada</t>
+  </si>
+  <si>
+    <t>Validar existencia de informacion</t>
+  </si>
+  <si>
+    <t>Validar busqueda</t>
+  </si>
+  <si>
+    <t>validando informacion del producto</t>
+  </si>
+  <si>
+    <t>validar datos del producto</t>
+  </si>
+  <si>
+    <t>registrar los datos del producto</t>
+  </si>
+  <si>
+    <t>consultando existencia de producto</t>
+  </si>
+  <si>
+    <t>visualiza los datos de la talla</t>
+  </si>
+  <si>
+    <t>Validar  información ingresada</t>
+  </si>
+  <si>
+    <t>Validar existencia de información</t>
+  </si>
+  <si>
+    <t>Validar búsqueda</t>
+  </si>
+  <si>
+    <t>Usuarios</t>
+  </si>
+  <si>
+    <t>Registro de los datos del usuario</t>
+  </si>
+  <si>
+    <t>Actualizar datos</t>
+  </si>
+  <si>
+    <t>registrando usuario</t>
+  </si>
+  <si>
+    <t>validando datos del usuario</t>
+  </si>
+  <si>
+    <t>ingresando documento de usuario ya registrado</t>
+  </si>
+  <si>
+    <t>permitir registro de usuario sino existe o denegar registro de usuario si ya existe</t>
+  </si>
+  <si>
+    <t>registrar los datos minimos del usuario</t>
+  </si>
+  <si>
+    <t>validar la informacion ingresada en los campos de registro del usuario</t>
+  </si>
+  <si>
+    <t>listando todos los usuarios registrados</t>
+  </si>
+  <si>
+    <t>visualizar datos si existen de lo contrario se mostrara un mensaje  indicando que no contiene informacion(No data available in table)</t>
+  </si>
+  <si>
+    <t>consultando usuario registrado</t>
+  </si>
+  <si>
+    <t>visualizar datos del usuario registrado</t>
+  </si>
+  <si>
+    <t>actualizando datos del usuario</t>
+  </si>
+  <si>
+    <t>actualizar datos del usuario</t>
+  </si>
+  <si>
+    <t>deshabilitando usuario</t>
+  </si>
+  <si>
+    <t>modificar el estado del usuario.</t>
+  </si>
+  <si>
+    <r>
+      <t>Produccion(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tipo producto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Registro de los tipos de productos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar búsqueda
+</t>
+  </si>
+  <si>
+    <t>registrando tipo producto</t>
+  </si>
+  <si>
+    <t>listando todos los tipos de producto registrados</t>
+  </si>
+  <si>
+    <t>registrar los datos minimos de tipo producto</t>
+  </si>
+  <si>
+    <t>visualizar los tipos de producto registrados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visializar informacion del registro </t>
+  </si>
+  <si>
+    <t>consultando existencia de tipo producto</t>
+  </si>
+  <si>
+    <t>actualizar la informacion de tipo producto</t>
+  </si>
+  <si>
+    <t>Bodega</t>
+  </si>
+  <si>
+    <t>Registro de los productos</t>
+  </si>
+  <si>
+    <t>valida la información del producto</t>
+  </si>
+  <si>
+    <t>registrando los productos</t>
+  </si>
+  <si>
+    <t>validando la informacion del producto</t>
+  </si>
+  <si>
+    <t>registrar el producto y su cantidad</t>
+  </si>
+  <si>
+    <t>verificar que el producto especificado exista</t>
+  </si>
+  <si>
+    <t>listando los registros de bodega</t>
+  </si>
+  <si>
+    <t>visializar los registros de bodega existentes</t>
+  </si>
+  <si>
+    <t>actualizando los productos existentes de bodega</t>
+  </si>
+  <si>
+    <t>actualizar los productos de bodega</t>
+  </si>
+  <si>
+    <t>Registro de la orden de compra</t>
+  </si>
+  <si>
+    <t>Orden de compra</t>
+  </si>
+  <si>
+    <t>registrando la orden de compra</t>
+  </si>
+  <si>
+    <t>registrar los datos de la orden de compra</t>
+  </si>
+  <si>
+    <t>consultando orden de compra</t>
+  </si>
+  <si>
+    <t>visializar registro de la orden de compra</t>
+  </si>
+  <si>
+    <t>actualizando informacion de la orden de compra</t>
+  </si>
+  <si>
+    <t>cambiando estado de la orden de compra</t>
+  </si>
+  <si>
+    <t>modificar estado de la orden de compra</t>
+  </si>
+  <si>
+    <t>registrando persona ya registrada en el sistema</t>
+  </si>
+  <si>
+    <t>no permitira registrar la persona ingresada con el numero de cedula, porque ya existe en el sistema.</t>
+  </si>
+  <si>
+    <t>lista todas las personas registradas en el sistema.</t>
+  </si>
+  <si>
+    <t>listando personas registradas</t>
+  </si>
+  <si>
+    <t>validar datos de la empresa.</t>
+  </si>
+  <si>
+    <t>listando empresas registradas</t>
+  </si>
+  <si>
+    <t>listar las empresas registradas</t>
+  </si>
+  <si>
+    <t>listar el registro consultado</t>
+  </si>
+  <si>
+    <t>actualizar datos de la empresa</t>
+  </si>
+  <si>
+    <t>cambiar estado de empresa</t>
+  </si>
+  <si>
+    <t>registrar la talla</t>
+  </si>
+  <si>
+    <t>registrando producto</t>
+  </si>
+  <si>
+    <t>listando los productos registrados</t>
+  </si>
+  <si>
+    <t>visializar  datos de los  productos registrados</t>
+  </si>
+  <si>
+    <t>visializar producto consultado</t>
+  </si>
+  <si>
+    <t>actualizando informacion de tipo producto</t>
+  </si>
+  <si>
+    <t>actualizar informacion de la orden de compra</t>
   </si>
 </sst>
 </file>
@@ -219,17 +694,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -264,7 +739,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -544,9 +1019,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -554,21 +1027,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -617,9 +1096,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -638,18 +1114,36 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -663,9 +1157,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -732,14 +1223,188 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1077,520 +1742,2237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U28"/>
+  <dimension ref="B1:V74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D50" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="3" customWidth="1"/>
-    <col min="12" max="13" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="3"/>
-    <col min="16" max="16" width="23.140625" style="3" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="3" hidden="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="0.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="1.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="0.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="1.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="42"/>
-      <c r="C2" s="45" t="s">
+    <row r="1" spans="2:22" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="46"/>
+      <c r="C2" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+    </row>
+    <row r="3" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="47"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+    </row>
+    <row r="4" spans="2:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="47"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+    </row>
+    <row r="5" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="47"/>
+      <c r="C5" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+    </row>
+    <row r="6" spans="2:22" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+    </row>
+    <row r="7" spans="2:22" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="2:22" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="65"/>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="25">
+        <v>42598</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="R8" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+    </row>
+    <row r="9" spans="2:22" s="10" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="67"/>
+      <c r="E9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="24">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="2:22" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="J10" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="69"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="35">
+        <v>42593</v>
+      </c>
+      <c r="L11" s="35">
+        <v>42595</v>
+      </c>
+      <c r="M11" s="35">
+        <v>42600</v>
+      </c>
+      <c r="N11" s="35">
+        <v>42603</v>
+      </c>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="19">
+        <v>1</v>
+      </c>
+      <c r="L12" s="19">
+        <v>2</v>
+      </c>
+      <c r="M12" s="19">
+        <v>3</v>
+      </c>
+      <c r="N12" s="19">
+        <v>4</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-    </row>
-    <row r="3" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="43"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-    </row>
-    <row r="4" spans="2:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="43"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-    </row>
-    <row r="5" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="43"/>
-      <c r="C5" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-    </row>
-    <row r="6" spans="2:21" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="44"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-    </row>
-    <row r="7" spans="2:21" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="2:21" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="Q8" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-    </row>
-    <row r="9" spans="2:21" s="12" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="2:21" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="J10" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3" t="s">
+    </row>
+    <row r="15" spans="2:22" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B16" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B18" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="B21" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B22" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B23" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B24" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B25" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="37"/>
+      <c r="J26" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B27" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="37"/>
+      <c r="J27" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B28" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="37"/>
+      <c r="J28" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N28" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B29" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="37"/>
+      <c r="J29" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B30" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="37"/>
+      <c r="J30" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N30" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B31" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="37"/>
+      <c r="J31" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M31" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N31" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B32" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="37"/>
+      <c r="J32" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B33" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="37"/>
+      <c r="J33" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B34" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="37"/>
+      <c r="J34" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K34" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N34" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B35" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="37"/>
+      <c r="J35" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="N35" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B36" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="37"/>
+      <c r="J36" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="M36" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B37" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="37"/>
+      <c r="J37" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="M37" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="N37" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B38" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="37"/>
+      <c r="J38" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="M38" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="N38" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B39" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="37"/>
+      <c r="J39" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L39" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M39" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N39" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B40" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="37"/>
+      <c r="J40" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L40" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M40" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N40" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="B41" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="37"/>
+      <c r="J41" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K41" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="B42" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="37"/>
+      <c r="J42" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K42" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B43" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="37"/>
+      <c r="J43" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B44" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="37"/>
+      <c r="J44" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B45" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="37"/>
+      <c r="J45" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B46" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="37"/>
+      <c r="J46" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K46" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B47" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="37"/>
+      <c r="J47" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K47" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B48" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="37"/>
+      <c r="J48" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K48" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="B49" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="37"/>
+      <c r="J49" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K49" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M49" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B50" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G50" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="U10" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="J11" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="17" t="s">
+      <c r="H50" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="37"/>
+      <c r="J50" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K50" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L50" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M50" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N50" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B51" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" s="37"/>
+      <c r="J51" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L51" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M51" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N51" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B52" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" s="37"/>
+      <c r="J52" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K52" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B53" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" s="37"/>
+      <c r="J53" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K53" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L53" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="21">
-        <v>1</v>
-      </c>
-      <c r="K12" s="21">
-        <v>2</v>
-      </c>
-      <c r="L12" s="21">
-        <v>3</v>
-      </c>
-      <c r="M12" s="21">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="Q13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="R13" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="22"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="R14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="31"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="R15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="22"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="22"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
+      <c r="M53" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N53" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="20"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q8:S8"/>
+  <autoFilter ref="B12:H26"/>
+  <mergeCells count="11">
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R8:T8"/>
     <mergeCell ref="B11:H11"/>
-    <mergeCell ref="I2:J6"/>
-    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="I2:K6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:F4"/>
     <mergeCell ref="C5:F6"/>
     <mergeCell ref="G2:H6"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="J10:N10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="J13:M28">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+  <conditionalFormatting sqref="K13:N53">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
       <formula>"PDTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G28">
-      <formula1>$R$10:$R$14</formula1>
+  <conditionalFormatting sqref="J13:J53">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+      <formula>"Si"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G53">
+      <formula1>$S$10:$S$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J13:M28">
-      <formula1>$Q$10:$Q$13</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13:N53">
+      <formula1>$R$10:$R$13</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J13:J53">
+      <formula1>"Si,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
